--- a/unittests/test_sheets/test_lots_of_agents.xlsx
+++ b/unittests/test_sheets/test_lots_of_agents.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="13">
   <si>
     <t>r</t>
   </si>
@@ -39,28 +39,25 @@
     <t>working_capital</t>
   </si>
   <si>
-    <t>selling_price</t>
-  </si>
-  <si>
     <t>q</t>
   </si>
   <si>
-    <t>mu_consumer_demand</t>
-  </si>
-  <si>
-    <t>sigma_consumer_demand</t>
-  </si>
-  <si>
     <t>p_delivery</t>
-  </si>
-  <si>
-    <t>max_suppliers</t>
   </si>
   <si>
     <t>input_margin</t>
   </si>
   <si>
     <t>interest_rate</t>
+  </si>
+  <si>
+    <t>consumer_demand_mean</t>
+  </si>
+  <si>
+    <t>mu_selling_price</t>
+  </si>
+  <si>
+    <t>sigma_selling_price</t>
   </si>
 </sst>
 </file>
@@ -387,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K46"/>
+  <dimension ref="A1:J46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E2" sqref="E2:E46"/>
@@ -398,18 +395,17 @@
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="3.875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="1"/>
-    <col min="6" max="6" width="20.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="1"/>
+    <col min="7" max="7" width="26.625" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" style="1"/>
-    <col min="9" max="9" width="12.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="1"/>
+    <col min="9" max="9" width="11.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -420,31 +416,28 @@
         <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -457,29 +450,26 @@
       <c r="D2" s="3">
         <v>5.5</v>
       </c>
-      <c r="E2" s="1">
-        <v>0.5</v>
+      <c r="E2" s="3">
+        <v>0.05</v>
       </c>
       <c r="F2" s="1">
-        <v>60</v>
-      </c>
-      <c r="G2" s="1">
-        <v>10</v>
+        <v>0.5</v>
+      </c>
+      <c r="G2" s="3">
+        <v>60</v>
       </c>
       <c r="H2" s="1">
         <v>0.8</v>
       </c>
       <c r="I2" s="1">
-        <v>3</v>
+        <v>0.1</v>
       </c>
       <c r="J2" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="K2" s="1">
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -492,29 +482,26 @@
       <c r="D3" s="3">
         <v>5.55</v>
       </c>
-      <c r="E3" s="1">
-        <v>0.5</v>
+      <c r="E3" s="3">
+        <v>0.05</v>
       </c>
       <c r="F3" s="1">
-        <v>60</v>
-      </c>
-      <c r="G3" s="1">
-        <v>10</v>
+        <v>0.5</v>
+      </c>
+      <c r="G3" s="3">
+        <v>60</v>
       </c>
       <c r="H3" s="1">
         <v>0.8</v>
       </c>
       <c r="I3" s="1">
-        <v>3</v>
+        <v>0.1</v>
       </c>
       <c r="J3" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="K3" s="1">
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -527,29 +514,26 @@
       <c r="D4" s="3">
         <v>5.51</v>
       </c>
-      <c r="E4" s="1">
-        <v>0.5</v>
+      <c r="E4" s="3">
+        <v>0.05</v>
       </c>
       <c r="F4" s="1">
-        <v>60</v>
-      </c>
-      <c r="G4" s="1">
-        <v>10</v>
+        <v>0.5</v>
+      </c>
+      <c r="G4" s="3">
+        <v>60</v>
       </c>
       <c r="H4" s="1">
         <v>0.8</v>
       </c>
       <c r="I4" s="1">
-        <v>3</v>
+        <v>0.1</v>
       </c>
       <c r="J4" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="K4" s="1">
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -562,29 +546,26 @@
       <c r="D5" s="3">
         <v>5.56</v>
       </c>
-      <c r="E5" s="1">
-        <v>0.5</v>
+      <c r="E5" s="3">
+        <v>0.05</v>
       </c>
       <c r="F5" s="1">
-        <v>60</v>
-      </c>
-      <c r="G5" s="1">
-        <v>10</v>
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="3">
+        <v>60</v>
       </c>
       <c r="H5" s="1">
         <v>0.8</v>
       </c>
       <c r="I5" s="1">
-        <v>3</v>
+        <v>0.1</v>
       </c>
       <c r="J5" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="K5" s="1">
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -597,29 +578,26 @@
       <c r="D6" s="3">
         <v>5.57</v>
       </c>
-      <c r="E6" s="1">
-        <v>0.5</v>
+      <c r="E6" s="3">
+        <v>0.05</v>
       </c>
       <c r="F6" s="1">
-        <v>60</v>
-      </c>
-      <c r="G6" s="1">
-        <v>10</v>
+        <v>0.5</v>
+      </c>
+      <c r="G6" s="3">
+        <v>60</v>
       </c>
       <c r="H6" s="1">
         <v>0.8</v>
       </c>
       <c r="I6" s="1">
-        <v>3</v>
+        <v>0.1</v>
       </c>
       <c r="J6" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="K6" s="1">
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -632,29 +610,26 @@
       <c r="D7" s="3">
         <v>5.58</v>
       </c>
-      <c r="E7" s="1">
-        <v>0.5</v>
+      <c r="E7" s="3">
+        <v>0.05</v>
       </c>
       <c r="F7" s="1">
-        <v>60</v>
-      </c>
-      <c r="G7" s="1">
-        <v>10</v>
+        <v>0.5</v>
+      </c>
+      <c r="G7" s="3">
+        <v>60</v>
       </c>
       <c r="H7" s="1">
         <v>0.8</v>
       </c>
       <c r="I7" s="1">
-        <v>3</v>
+        <v>0.1</v>
       </c>
       <c r="J7" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="K7" s="1">
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -667,29 +642,26 @@
       <c r="D8" s="3">
         <v>5.59</v>
       </c>
-      <c r="E8" s="1">
-        <v>0.5</v>
+      <c r="E8" s="3">
+        <v>0.05</v>
       </c>
       <c r="F8" s="1">
-        <v>60</v>
-      </c>
-      <c r="G8" s="1">
-        <v>10</v>
+        <v>0.5</v>
+      </c>
+      <c r="G8" s="3">
+        <v>60</v>
       </c>
       <c r="H8" s="1">
         <v>0.8</v>
       </c>
       <c r="I8" s="1">
-        <v>3</v>
+        <v>0.1</v>
       </c>
       <c r="J8" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="K8" s="1">
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -702,29 +674,26 @@
       <c r="D9" s="3">
         <v>5.53</v>
       </c>
-      <c r="E9" s="1">
-        <v>0.5</v>
+      <c r="E9" s="3">
+        <v>0.05</v>
       </c>
       <c r="F9" s="1">
-        <v>60</v>
-      </c>
-      <c r="G9" s="1">
-        <v>10</v>
+        <v>0.5</v>
+      </c>
+      <c r="G9" s="3">
+        <v>60</v>
       </c>
       <c r="H9" s="1">
         <v>0.8</v>
       </c>
       <c r="I9" s="1">
-        <v>3</v>
+        <v>0.1</v>
       </c>
       <c r="J9" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="K9" s="1">
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -737,29 +706,26 @@
       <c r="D10" s="3">
         <v>5.52</v>
       </c>
-      <c r="E10" s="1">
-        <v>0.5</v>
+      <c r="E10" s="3">
+        <v>0.05</v>
       </c>
       <c r="F10" s="1">
-        <v>60</v>
-      </c>
-      <c r="G10" s="1">
-        <v>10</v>
+        <v>0.5</v>
+      </c>
+      <c r="G10" s="3">
+        <v>60</v>
       </c>
       <c r="H10" s="1">
         <v>0.8</v>
       </c>
       <c r="I10" s="1">
-        <v>3</v>
+        <v>0.1</v>
       </c>
       <c r="J10" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="K10" s="1">
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -772,29 +738,26 @@
       <c r="D11" s="3">
         <v>5.54</v>
       </c>
-      <c r="E11" s="1">
-        <v>0.5</v>
+      <c r="E11" s="3">
+        <v>0.05</v>
       </c>
       <c r="F11" s="1">
-        <v>60</v>
-      </c>
-      <c r="G11" s="1">
-        <v>10</v>
+        <v>0.5</v>
+      </c>
+      <c r="G11" s="3">
+        <v>60</v>
       </c>
       <c r="H11" s="1">
         <v>0.8</v>
       </c>
       <c r="I11" s="1">
-        <v>3</v>
+        <v>0.1</v>
       </c>
       <c r="J11" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="K11" s="1">
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -807,29 +770,26 @@
       <c r="D12" s="3">
         <v>5.6</v>
       </c>
-      <c r="E12" s="1">
-        <v>0.5</v>
+      <c r="E12" s="3">
+        <v>0.05</v>
       </c>
       <c r="F12" s="1">
-        <v>60</v>
-      </c>
-      <c r="G12" s="1">
-        <v>10</v>
+        <v>0.5</v>
+      </c>
+      <c r="G12" s="3">
+        <v>60</v>
       </c>
       <c r="H12" s="1">
         <v>0.8</v>
       </c>
       <c r="I12" s="1">
-        <v>3</v>
+        <v>0.1</v>
       </c>
       <c r="J12" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="K12" s="1">
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -842,29 +802,26 @@
       <c r="D13" s="3">
         <v>5.61</v>
       </c>
-      <c r="E13" s="1">
-        <v>0.5</v>
+      <c r="E13" s="3">
+        <v>0.05</v>
       </c>
       <c r="F13" s="1">
-        <v>60</v>
-      </c>
-      <c r="G13" s="1">
-        <v>10</v>
+        <v>0.5</v>
+      </c>
+      <c r="G13" s="3">
+        <v>60</v>
       </c>
       <c r="H13" s="1">
         <v>0.8</v>
       </c>
       <c r="I13" s="1">
-        <v>3</v>
+        <v>0.1</v>
       </c>
       <c r="J13" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="K13" s="1">
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -877,29 +834,26 @@
       <c r="D14" s="3">
         <v>5.62</v>
       </c>
-      <c r="E14" s="1">
-        <v>0.5</v>
+      <c r="E14" s="3">
+        <v>0.05</v>
       </c>
       <c r="F14" s="1">
-        <v>60</v>
-      </c>
-      <c r="G14" s="1">
-        <v>10</v>
+        <v>0.5</v>
+      </c>
+      <c r="G14" s="3">
+        <v>60</v>
       </c>
       <c r="H14" s="1">
         <v>0.8</v>
       </c>
       <c r="I14" s="1">
-        <v>3</v>
+        <v>0.1</v>
       </c>
       <c r="J14" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="K14" s="1">
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -912,29 +866,26 @@
       <c r="D15" s="3">
         <v>5.63</v>
       </c>
-      <c r="E15" s="1">
-        <v>0.5</v>
+      <c r="E15" s="3">
+        <v>0.05</v>
       </c>
       <c r="F15" s="1">
-        <v>60</v>
-      </c>
-      <c r="G15" s="1">
-        <v>10</v>
+        <v>0.5</v>
+      </c>
+      <c r="G15" s="3">
+        <v>60</v>
       </c>
       <c r="H15" s="1">
         <v>0.8</v>
       </c>
       <c r="I15" s="1">
-        <v>3</v>
+        <v>0.1</v>
       </c>
       <c r="J15" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="K15" s="1">
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -947,29 +898,26 @@
       <c r="D16" s="3">
         <v>5.64</v>
       </c>
-      <c r="E16" s="1">
-        <v>0.5</v>
+      <c r="E16" s="3">
+        <v>0.05</v>
       </c>
       <c r="F16" s="1">
-        <v>60</v>
-      </c>
-      <c r="G16" s="1">
-        <v>10</v>
+        <v>0.5</v>
+      </c>
+      <c r="G16" s="3">
+        <v>60</v>
       </c>
       <c r="H16" s="1">
         <v>0.8</v>
       </c>
       <c r="I16" s="1">
-        <v>3</v>
+        <v>0.1</v>
       </c>
       <c r="J16" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="K16" s="1">
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -982,29 +930,26 @@
       <c r="D17" s="3">
         <v>5.4</v>
       </c>
-      <c r="E17" s="1">
-        <v>0.5</v>
+      <c r="E17" s="3">
+        <v>0.05</v>
       </c>
       <c r="F17" s="1">
-        <v>60</v>
-      </c>
-      <c r="G17" s="1">
-        <v>10</v>
+        <v>0.5</v>
+      </c>
+      <c r="G17" s="3">
+        <v>60</v>
       </c>
       <c r="H17" s="1">
         <v>0.8</v>
       </c>
       <c r="I17" s="1">
-        <v>3</v>
+        <v>0.1</v>
       </c>
       <c r="J17" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="K17" s="1">
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1017,29 +962,26 @@
       <c r="D18" s="3">
         <v>5.41</v>
       </c>
-      <c r="E18" s="1">
-        <v>0.5</v>
+      <c r="E18" s="3">
+        <v>0.05</v>
       </c>
       <c r="F18" s="1">
-        <v>60</v>
-      </c>
-      <c r="G18" s="1">
-        <v>10</v>
+        <v>0.5</v>
+      </c>
+      <c r="G18" s="3">
+        <v>60</v>
       </c>
       <c r="H18" s="1">
         <v>0.8</v>
       </c>
       <c r="I18" s="1">
-        <v>3</v>
+        <v>0.1</v>
       </c>
       <c r="J18" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="K18" s="1">
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1052,29 +994,26 @@
       <c r="D19" s="3">
         <v>5.42</v>
       </c>
-      <c r="E19" s="1">
-        <v>0.5</v>
+      <c r="E19" s="3">
+        <v>0.05</v>
       </c>
       <c r="F19" s="1">
-        <v>60</v>
-      </c>
-      <c r="G19" s="1">
-        <v>10</v>
+        <v>0.5</v>
+      </c>
+      <c r="G19" s="3">
+        <v>60</v>
       </c>
       <c r="H19" s="1">
         <v>0.8</v>
       </c>
       <c r="I19" s="1">
-        <v>3</v>
+        <v>0.1</v>
       </c>
       <c r="J19" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="K19" s="1">
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1087,29 +1026,26 @@
       <c r="D20" s="3">
         <v>5.43</v>
       </c>
-      <c r="E20" s="1">
-        <v>0.5</v>
+      <c r="E20" s="3">
+        <v>0.05</v>
       </c>
       <c r="F20" s="1">
-        <v>60</v>
-      </c>
-      <c r="G20" s="1">
-        <v>10</v>
+        <v>0.5</v>
+      </c>
+      <c r="G20" s="3">
+        <v>60</v>
       </c>
       <c r="H20" s="1">
         <v>0.8</v>
       </c>
       <c r="I20" s="1">
-        <v>3</v>
+        <v>0.1</v>
       </c>
       <c r="J20" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="K20" s="1">
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1122,29 +1058,26 @@
       <c r="D21" s="3">
         <v>5.44</v>
       </c>
-      <c r="E21" s="1">
-        <v>0.5</v>
+      <c r="E21" s="3">
+        <v>0.05</v>
       </c>
       <c r="F21" s="1">
-        <v>60</v>
-      </c>
-      <c r="G21" s="1">
-        <v>10</v>
+        <v>0.5</v>
+      </c>
+      <c r="G21" s="3">
+        <v>60</v>
       </c>
       <c r="H21" s="1">
         <v>0.8</v>
       </c>
       <c r="I21" s="1">
-        <v>3</v>
+        <v>0.1</v>
       </c>
       <c r="J21" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="K21" s="1">
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1157,29 +1090,26 @@
       <c r="D22" s="3">
         <v>5.45</v>
       </c>
-      <c r="E22" s="1">
-        <v>0.5</v>
+      <c r="E22" s="3">
+        <v>0.05</v>
       </c>
       <c r="F22" s="1">
-        <v>60</v>
-      </c>
-      <c r="G22" s="1">
-        <v>10</v>
+        <v>0.5</v>
+      </c>
+      <c r="G22" s="3">
+        <v>60</v>
       </c>
       <c r="H22" s="1">
         <v>0.8</v>
       </c>
       <c r="I22" s="1">
-        <v>3</v>
+        <v>0.1</v>
       </c>
       <c r="J22" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="K22" s="1">
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1192,29 +1122,26 @@
       <c r="D23" s="3">
         <v>5.46</v>
       </c>
-      <c r="E23" s="1">
-        <v>0.5</v>
+      <c r="E23" s="3">
+        <v>0.05</v>
       </c>
       <c r="F23" s="1">
-        <v>60</v>
-      </c>
-      <c r="G23" s="1">
-        <v>10</v>
+        <v>0.5</v>
+      </c>
+      <c r="G23" s="3">
+        <v>60</v>
       </c>
       <c r="H23" s="1">
         <v>0.8</v>
       </c>
       <c r="I23" s="1">
-        <v>3</v>
+        <v>0.1</v>
       </c>
       <c r="J23" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="K23" s="1">
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1227,29 +1154,26 @@
       <c r="D24" s="3">
         <v>5.47</v>
       </c>
-      <c r="E24" s="1">
-        <v>0.5</v>
+      <c r="E24" s="3">
+        <v>0.05</v>
       </c>
       <c r="F24" s="1">
-        <v>60</v>
-      </c>
-      <c r="G24" s="1">
-        <v>10</v>
+        <v>0.5</v>
+      </c>
+      <c r="G24" s="3">
+        <v>60</v>
       </c>
       <c r="H24" s="1">
         <v>0.8</v>
       </c>
       <c r="I24" s="1">
-        <v>3</v>
+        <v>0.1</v>
       </c>
       <c r="J24" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="K24" s="1">
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1262,29 +1186,26 @@
       <c r="D25" s="3">
         <v>5.48</v>
       </c>
-      <c r="E25" s="1">
-        <v>0.5</v>
+      <c r="E25" s="3">
+        <v>0.05</v>
       </c>
       <c r="F25" s="1">
-        <v>60</v>
-      </c>
-      <c r="G25" s="1">
-        <v>10</v>
+        <v>0.5</v>
+      </c>
+      <c r="G25" s="3">
+        <v>60</v>
       </c>
       <c r="H25" s="1">
         <v>0.8</v>
       </c>
       <c r="I25" s="1">
-        <v>3</v>
+        <v>0.1</v>
       </c>
       <c r="J25" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="K25" s="1">
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1297,29 +1218,26 @@
       <c r="D26" s="3">
         <v>5.49</v>
       </c>
-      <c r="E26" s="1">
-        <v>0.5</v>
+      <c r="E26" s="3">
+        <v>0.05</v>
       </c>
       <c r="F26" s="1">
-        <v>60</v>
-      </c>
-      <c r="G26" s="1">
-        <v>10</v>
+        <v>0.5</v>
+      </c>
+      <c r="G26" s="3">
+        <v>60</v>
       </c>
       <c r="H26" s="1">
         <v>0.8</v>
       </c>
       <c r="I26" s="1">
-        <v>3</v>
+        <v>0.1</v>
       </c>
       <c r="J26" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="K26" s="1">
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1332,29 +1250,26 @@
       <c r="D27" s="3">
         <v>5.5</v>
       </c>
-      <c r="E27" s="1">
-        <v>0.5</v>
+      <c r="E27" s="3">
+        <v>0.05</v>
       </c>
       <c r="F27" s="1">
-        <v>60</v>
-      </c>
-      <c r="G27" s="1">
-        <v>10</v>
+        <v>0.5</v>
+      </c>
+      <c r="G27" s="3">
+        <v>60</v>
       </c>
       <c r="H27" s="1">
         <v>0.8</v>
       </c>
       <c r="I27" s="1">
-        <v>3</v>
+        <v>0.1</v>
       </c>
       <c r="J27" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="K27" s="1">
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1367,29 +1282,26 @@
       <c r="D28" s="3">
         <v>5.51</v>
       </c>
-      <c r="E28" s="1">
-        <v>0.5</v>
+      <c r="E28" s="3">
+        <v>0.05</v>
       </c>
       <c r="F28" s="1">
-        <v>60</v>
-      </c>
-      <c r="G28" s="1">
-        <v>10</v>
+        <v>0.5</v>
+      </c>
+      <c r="G28" s="3">
+        <v>60</v>
       </c>
       <c r="H28" s="1">
         <v>0.8</v>
       </c>
       <c r="I28" s="1">
-        <v>3</v>
+        <v>0.1</v>
       </c>
       <c r="J28" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="K28" s="1">
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -1402,29 +1314,26 @@
       <c r="D29" s="3">
         <v>5.52</v>
       </c>
-      <c r="E29" s="1">
-        <v>0.5</v>
+      <c r="E29" s="3">
+        <v>0.05</v>
       </c>
       <c r="F29" s="1">
-        <v>60</v>
-      </c>
-      <c r="G29" s="1">
-        <v>10</v>
+        <v>0.5</v>
+      </c>
+      <c r="G29" s="3">
+        <v>60</v>
       </c>
       <c r="H29" s="1">
         <v>0.8</v>
       </c>
       <c r="I29" s="1">
-        <v>3</v>
+        <v>0.1</v>
       </c>
       <c r="J29" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="K29" s="1">
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -1437,29 +1346,26 @@
       <c r="D30" s="1">
         <v>5.53</v>
       </c>
-      <c r="E30" s="1">
-        <v>0.5</v>
+      <c r="E30" s="3">
+        <v>0.05</v>
       </c>
       <c r="F30" s="1">
-        <v>60</v>
-      </c>
-      <c r="G30" s="1">
-        <v>10</v>
+        <v>0.5</v>
+      </c>
+      <c r="G30" s="3">
+        <v>60</v>
       </c>
       <c r="H30" s="1">
         <v>0.8</v>
       </c>
       <c r="I30" s="1">
-        <v>3</v>
+        <v>0.1</v>
       </c>
       <c r="J30" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="K30" s="1">
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -1472,29 +1378,26 @@
       <c r="D31" s="1">
         <v>5.54</v>
       </c>
-      <c r="E31" s="1">
-        <v>0.5</v>
+      <c r="E31" s="3">
+        <v>0.05</v>
       </c>
       <c r="F31" s="1">
-        <v>60</v>
-      </c>
-      <c r="G31" s="1">
-        <v>10</v>
+        <v>0.5</v>
+      </c>
+      <c r="G31" s="3">
+        <v>60</v>
       </c>
       <c r="H31" s="1">
         <v>0.8</v>
       </c>
       <c r="I31" s="1">
-        <v>3</v>
+        <v>0.1</v>
       </c>
       <c r="J31" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="K31" s="1">
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -1507,29 +1410,26 @@
       <c r="D32" s="1">
         <v>5.3</v>
       </c>
-      <c r="E32" s="1">
-        <v>0.5</v>
+      <c r="E32" s="3">
+        <v>0.05</v>
       </c>
       <c r="F32" s="1">
-        <v>60</v>
-      </c>
-      <c r="G32" s="1">
-        <v>10</v>
+        <v>0.5</v>
+      </c>
+      <c r="G32" s="3">
+        <v>60</v>
       </c>
       <c r="H32" s="1">
         <v>0.8</v>
       </c>
       <c r="I32" s="1">
-        <v>3</v>
+        <v>0.1</v>
       </c>
       <c r="J32" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="K32" s="1">
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -1542,29 +1442,26 @@
       <c r="D33" s="1">
         <v>5.31</v>
       </c>
-      <c r="E33" s="1">
-        <v>0.5</v>
+      <c r="E33" s="3">
+        <v>0.05</v>
       </c>
       <c r="F33" s="1">
-        <v>60</v>
-      </c>
-      <c r="G33" s="1">
-        <v>10</v>
+        <v>0.5</v>
+      </c>
+      <c r="G33" s="3">
+        <v>60</v>
       </c>
       <c r="H33" s="1">
         <v>0.8</v>
       </c>
       <c r="I33" s="1">
-        <v>3</v>
+        <v>0.1</v>
       </c>
       <c r="J33" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="K33" s="1">
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -1577,29 +1474,26 @@
       <c r="D34" s="1">
         <v>5.32</v>
       </c>
-      <c r="E34" s="1">
-        <v>0.5</v>
+      <c r="E34" s="3">
+        <v>0.05</v>
       </c>
       <c r="F34" s="1">
-        <v>60</v>
-      </c>
-      <c r="G34" s="1">
-        <v>10</v>
+        <v>0.5</v>
+      </c>
+      <c r="G34" s="3">
+        <v>60</v>
       </c>
       <c r="H34" s="1">
         <v>0.8</v>
       </c>
       <c r="I34" s="1">
-        <v>3</v>
+        <v>0.1</v>
       </c>
       <c r="J34" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="K34" s="1">
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -1612,29 +1506,26 @@
       <c r="D35" s="1">
         <v>5.33</v>
       </c>
-      <c r="E35" s="1">
-        <v>0.5</v>
+      <c r="E35" s="3">
+        <v>0.05</v>
       </c>
       <c r="F35" s="1">
-        <v>60</v>
-      </c>
-      <c r="G35" s="1">
-        <v>10</v>
+        <v>0.5</v>
+      </c>
+      <c r="G35" s="3">
+        <v>60</v>
       </c>
       <c r="H35" s="1">
         <v>0.8</v>
       </c>
       <c r="I35" s="1">
-        <v>3</v>
+        <v>0.1</v>
       </c>
       <c r="J35" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="K35" s="1">
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -1647,29 +1538,26 @@
       <c r="D36" s="1">
         <v>5.34</v>
       </c>
-      <c r="E36" s="1">
-        <v>0.5</v>
+      <c r="E36" s="3">
+        <v>0.05</v>
       </c>
       <c r="F36" s="1">
-        <v>60</v>
-      </c>
-      <c r="G36" s="1">
-        <v>10</v>
+        <v>0.5</v>
+      </c>
+      <c r="G36" s="3">
+        <v>60</v>
       </c>
       <c r="H36" s="1">
         <v>0.8</v>
       </c>
       <c r="I36" s="1">
-        <v>3</v>
+        <v>0.1</v>
       </c>
       <c r="J36" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="K36" s="1">
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -1682,29 +1570,26 @@
       <c r="D37" s="1">
         <v>5.35</v>
       </c>
-      <c r="E37" s="1">
-        <v>0.5</v>
+      <c r="E37" s="3">
+        <v>0.05</v>
       </c>
       <c r="F37" s="1">
-        <v>60</v>
-      </c>
-      <c r="G37" s="1">
-        <v>10</v>
+        <v>0.5</v>
+      </c>
+      <c r="G37" s="3">
+        <v>60</v>
       </c>
       <c r="H37" s="1">
         <v>0.8</v>
       </c>
       <c r="I37" s="1">
-        <v>3</v>
+        <v>0.1</v>
       </c>
       <c r="J37" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="K37" s="1">
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -1717,29 +1602,26 @@
       <c r="D38" s="1">
         <v>5.34</v>
       </c>
-      <c r="E38" s="1">
-        <v>0.5</v>
+      <c r="E38" s="3">
+        <v>0.05</v>
       </c>
       <c r="F38" s="1">
-        <v>60</v>
-      </c>
-      <c r="G38" s="1">
-        <v>10</v>
+        <v>0.5</v>
+      </c>
+      <c r="G38" s="3">
+        <v>60</v>
       </c>
       <c r="H38" s="1">
         <v>0.8</v>
       </c>
       <c r="I38" s="1">
-        <v>3</v>
+        <v>0.1</v>
       </c>
       <c r="J38" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="K38" s="1">
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -1752,29 +1634,26 @@
       <c r="D39" s="1">
         <v>5.35</v>
       </c>
-      <c r="E39" s="1">
-        <v>0.5</v>
+      <c r="E39" s="3">
+        <v>0.05</v>
       </c>
       <c r="F39" s="1">
-        <v>60</v>
-      </c>
-      <c r="G39" s="1">
-        <v>10</v>
+        <v>0.5</v>
+      </c>
+      <c r="G39" s="3">
+        <v>60</v>
       </c>
       <c r="H39" s="1">
         <v>0.8</v>
       </c>
       <c r="I39" s="1">
-        <v>3</v>
+        <v>0.1</v>
       </c>
       <c r="J39" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="K39" s="1">
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -1787,29 +1666,26 @@
       <c r="D40" s="1">
         <v>5.36</v>
       </c>
-      <c r="E40" s="1">
-        <v>0.5</v>
+      <c r="E40" s="3">
+        <v>0.05</v>
       </c>
       <c r="F40" s="1">
-        <v>60</v>
-      </c>
-      <c r="G40" s="1">
-        <v>10</v>
+        <v>0.5</v>
+      </c>
+      <c r="G40" s="3">
+        <v>60</v>
       </c>
       <c r="H40" s="1">
         <v>0.8</v>
       </c>
       <c r="I40" s="1">
-        <v>3</v>
+        <v>0.1</v>
       </c>
       <c r="J40" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="K40" s="1">
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -1822,29 +1698,26 @@
       <c r="D41" s="1">
         <v>5.37</v>
       </c>
-      <c r="E41" s="1">
-        <v>0.5</v>
+      <c r="E41" s="3">
+        <v>0.05</v>
       </c>
       <c r="F41" s="1">
-        <v>60</v>
-      </c>
-      <c r="G41" s="1">
-        <v>10</v>
+        <v>0.5</v>
+      </c>
+      <c r="G41" s="3">
+        <v>60</v>
       </c>
       <c r="H41" s="1">
         <v>0.8</v>
       </c>
       <c r="I41" s="1">
-        <v>3</v>
+        <v>0.1</v>
       </c>
       <c r="J41" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="K41" s="1">
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -1857,29 +1730,26 @@
       <c r="D42" s="1">
         <v>5.38</v>
       </c>
-      <c r="E42" s="1">
-        <v>0.5</v>
+      <c r="E42" s="3">
+        <v>0.05</v>
       </c>
       <c r="F42" s="1">
-        <v>60</v>
-      </c>
-      <c r="G42" s="1">
-        <v>10</v>
+        <v>0.5</v>
+      </c>
+      <c r="G42" s="3">
+        <v>60</v>
       </c>
       <c r="H42" s="1">
         <v>0.8</v>
       </c>
       <c r="I42" s="1">
-        <v>3</v>
+        <v>0.1</v>
       </c>
       <c r="J42" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="K42" s="1">
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -1892,29 +1762,26 @@
       <c r="D43" s="1">
         <v>5.39</v>
       </c>
-      <c r="E43" s="1">
-        <v>0.5</v>
+      <c r="E43" s="3">
+        <v>0.05</v>
       </c>
       <c r="F43" s="1">
-        <v>60</v>
-      </c>
-      <c r="G43" s="1">
-        <v>10</v>
+        <v>0.5</v>
+      </c>
+      <c r="G43" s="3">
+        <v>60</v>
       </c>
       <c r="H43" s="1">
         <v>0.8</v>
       </c>
       <c r="I43" s="1">
-        <v>3</v>
+        <v>0.1</v>
       </c>
       <c r="J43" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="K43" s="1">
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -1927,29 +1794,26 @@
       <c r="D44" s="1">
         <v>5.4</v>
       </c>
-      <c r="E44" s="1">
-        <v>0.5</v>
+      <c r="E44" s="3">
+        <v>0.05</v>
       </c>
       <c r="F44" s="1">
-        <v>60</v>
-      </c>
-      <c r="G44" s="1">
-        <v>10</v>
+        <v>0.5</v>
+      </c>
+      <c r="G44" s="3">
+        <v>60</v>
       </c>
       <c r="H44" s="1">
         <v>0.8</v>
       </c>
       <c r="I44" s="1">
-        <v>3</v>
+        <v>0.1</v>
       </c>
       <c r="J44" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="K44" s="1">
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -1962,29 +1826,26 @@
       <c r="D45" s="1">
         <v>5.41</v>
       </c>
-      <c r="E45" s="1">
-        <v>0.5</v>
+      <c r="E45" s="3">
+        <v>0.05</v>
       </c>
       <c r="F45" s="1">
-        <v>60</v>
-      </c>
-      <c r="G45" s="1">
-        <v>10</v>
+        <v>0.5</v>
+      </c>
+      <c r="G45" s="3">
+        <v>60</v>
       </c>
       <c r="H45" s="1">
         <v>0.8</v>
       </c>
       <c r="I45" s="1">
-        <v>3</v>
+        <v>0.1</v>
       </c>
       <c r="J45" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="K45" s="1">
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -1997,25 +1858,22 @@
       <c r="D46" s="1">
         <v>5.42</v>
       </c>
-      <c r="E46" s="1">
-        <v>0.5</v>
+      <c r="E46" s="3">
+        <v>0.05</v>
       </c>
       <c r="F46" s="1">
-        <v>60</v>
-      </c>
-      <c r="G46" s="1">
-        <v>10</v>
+        <v>0.5</v>
+      </c>
+      <c r="G46" s="3">
+        <v>60</v>
       </c>
       <c r="H46" s="1">
         <v>0.8</v>
       </c>
       <c r="I46" s="1">
-        <v>3</v>
+        <v>0.1</v>
       </c>
       <c r="J46" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="K46" s="1">
         <v>2E-3</v>
       </c>
     </row>
